--- a/elections/Sutton-Town-Council-Election-Results.xlsx
+++ b/elections/Sutton-Town-Council-Election-Results.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/sutton-coldfield-town-council/elections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{895F2831-B072-EF48-9497-49274A8E4109}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAC263F-8751-3341-ADDC-62DD304A0942}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16080" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="votes by party and ward" sheetId="2" r:id="rId1"/>
-    <sheet name="results" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="ConLab only" sheetId="3" r:id="rId3"/>
+    <sheet name="pivot winners" sheetId="4" r:id="rId4"/>
+    <sheet name="results" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="118">
   <si>
     <t>File</t>
   </si>
@@ -385,7 +388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -863,7 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -872,6 +875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -932,7 +939,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Paul Bradshaw" refreshedDate="43226.388908680558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Bradshaw" refreshedDate="43226.388908680558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F49" sheet="results"/>
   </cacheSource>
@@ -950,10 +957,105 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="48">
+        <s v="Barley Roger Eric"/>
+        <s v="Horrocks Clare"/>
+        <s v="Ratcliff David Martin"/>
+        <s v="Ward Simon"/>
+        <s v="Cummins Jackie"/>
+        <s v="Johnson Terry"/>
+        <s v="Mayner Jonny"/>
+        <s v="Raut Nitish"/>
+        <s v="Ashley-Higgins Julie Clare"/>
+        <s v="Pratt Tom"/>
+        <s v="Simper Samuel"/>
+        <s v="Surti Devia"/>
+        <s v="French Derek Ian"/>
+        <s v="French Peter Robert"/>
+        <s v="Gray Jennifer"/>
+        <s v="Mackey Ewan"/>
+        <s v="Mosson Jane"/>
+        <s v="Parmar Harry"/>
+        <s v="Allan David"/>
+        <s v="Ashley-Higgins Charlotte Julia"/>
+        <s v="Pears David"/>
+        <s v="Tomlinson Paul"/>
+        <s v="Ward Keith"/>
+        <s v="Wilkinson Jenny"/>
+        <s v="Burrows Alan Stephen"/>
+        <s v="Cairns Janet"/>
+        <s v="Farr Thomas"/>
+        <s v="Fox-Redfern Matthew"/>
+        <s v="Jolley Alison"/>
+        <s v="Marriott Colin"/>
+        <s v="Parry Elizabeth Sarah"/>
+        <s v="Passey Louise"/>
+        <s v="Pocock Rob"/>
+        <s v="Puri Manish Kumar"/>
+        <s v="Afreen Sadaf"/>
+        <s v="Auton Ben"/>
+        <s v="Cooke David"/>
+        <s v="Cooper John"/>
+        <s v="Ellis Joanne"/>
+        <s v="Finnegan Paul Edward"/>
+        <s v="Griffin Derrick"/>
+        <s v="McDonough Dominic"/>
+        <s v="O'Hagan David Michael"/>
+        <s v="Wood Terry"/>
+        <s v="Allen Leeford Claude Beresford"/>
+        <s v="Brindley Ian Stuart"/>
+        <s v="Hodgins Samuel"/>
+        <s v="Whitehouse Karen Hilda"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Surname" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="45">
+        <s v="Barley"/>
+        <s v="Horrocks"/>
+        <s v="Ratcliff"/>
+        <s v="Ward"/>
+        <s v="Cummins"/>
+        <s v="Johnson"/>
+        <s v="Mayner"/>
+        <s v="Raut"/>
+        <s v="Ashley-Higgins"/>
+        <s v="Pratt"/>
+        <s v="Simper"/>
+        <s v="Surti"/>
+        <s v="French"/>
+        <s v="Gray"/>
+        <s v="Mackey"/>
+        <s v="Mosson"/>
+        <s v="Parmar"/>
+        <s v="Allan"/>
+        <s v="Pears"/>
+        <s v="Tomlinson"/>
+        <s v="Wilkinson"/>
+        <s v="Burrows"/>
+        <s v="Cairns"/>
+        <s v="Farr"/>
+        <s v="Fox-Redfern"/>
+        <s v="Jolley"/>
+        <s v="Marriott"/>
+        <s v="Parry"/>
+        <s v="Passey"/>
+        <s v="Pocock"/>
+        <s v="Puri"/>
+        <s v="Afreen"/>
+        <s v="Auton"/>
+        <s v="Cooke"/>
+        <s v="Cooper"/>
+        <s v="Ellis"/>
+        <s v="Finnegan"/>
+        <s v="Griffin"/>
+        <s v="McDonough"/>
+        <s v="O'Hagan"/>
+        <s v="Wood"/>
+        <s v="Allen"/>
+        <s v="Brindley"/>
+        <s v="Hodgins"/>
+        <s v="Whitehouse"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Party" numFmtId="0">
       <sharedItems count="5">
@@ -965,10 +1067,62 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Number of_x000a_            Votes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="436" maxValue="3697"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="436" maxValue="3697" count="48">
+        <n v="436"/>
+        <n v="1841"/>
+        <n v="455"/>
+        <n v="1567"/>
+        <n v="2046"/>
+        <n v="651"/>
+        <n v="612"/>
+        <n v="1387"/>
+        <n v="627"/>
+        <n v="504"/>
+        <n v="973"/>
+        <n v="618"/>
+        <n v="700"/>
+        <n v="682"/>
+        <n v="577"/>
+        <n v="1695"/>
+        <n v="1504"/>
+        <n v="1251"/>
+        <n v="1220"/>
+        <n v="780"/>
+        <n v="1272"/>
+        <n v="690"/>
+        <n v="1144"/>
+        <n v="735"/>
+        <n v="1652"/>
+        <n v="2304"/>
+        <n v="1709"/>
+        <n v="1602"/>
+        <n v="1999"/>
+        <n v="1493"/>
+        <n v="1710"/>
+        <n v="2042"/>
+        <n v="3697"/>
+        <n v="2821"/>
+        <n v="705"/>
+        <n v="828"/>
+        <n v="675"/>
+        <n v="2102"/>
+        <n v="2295"/>
+        <n v="847"/>
+        <n v="2096"/>
+        <n v="1907"/>
+        <n v="1050"/>
+        <n v="1906"/>
+        <n v="1519"/>
+        <n v="832"/>
+        <n v="1631"/>
+        <n v="807"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Elected" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="No"/>
+        <s v="Yes"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -980,396 +1134,396 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
   <r>
     <x v="0"/>
-    <s v="Barley Roger Eric"/>
-    <s v="Barley"/>
     <x v="0"/>
-    <n v="436"/>
-    <s v="No"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="Horrocks Clare"/>
-    <s v="Horrocks"/>
     <x v="1"/>
-    <n v="1841"/>
-    <s v="Yes"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="Ratcliff David Martin"/>
-    <s v="Ratcliff"/>
     <x v="2"/>
-    <n v="455"/>
-    <s v="No"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="Ward Simon"/>
-    <s v="Ward"/>
+    <x v="3"/>
+    <x v="3"/>
     <x v="1"/>
-    <n v="1567"/>
-    <s v="Yes"/>
+    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="Cummins Jackie"/>
-    <s v="Cummins"/>
+    <x v="4"/>
+    <x v="4"/>
     <x v="1"/>
-    <n v="2046"/>
-    <s v="Yes"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="Johnson Terry"/>
-    <s v="Johnson"/>
+    <x v="5"/>
+    <x v="5"/>
     <x v="0"/>
-    <n v="651"/>
-    <s v="No"/>
+    <x v="5"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="Mayner Jonny"/>
-    <s v="Mayner"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="3"/>
-    <n v="612"/>
-    <s v="No"/>
+    <x v="6"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="Raut Nitish"/>
-    <s v="Raut"/>
+    <x v="7"/>
+    <x v="7"/>
     <x v="1"/>
-    <n v="1387"/>
-    <s v="Yes"/>
+    <x v="7"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="Ashley-Higgins Julie Clare"/>
-    <s v="Ashley-Higgins"/>
+    <x v="8"/>
+    <x v="8"/>
     <x v="0"/>
-    <n v="627"/>
-    <s v="Yes"/>
+    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="Pratt Tom"/>
-    <s v="Pratt"/>
+    <x v="9"/>
+    <x v="9"/>
     <x v="4"/>
-    <n v="504"/>
-    <s v="No"/>
+    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="Simper Samuel"/>
-    <s v="Simper"/>
+    <x v="10"/>
+    <x v="10"/>
     <x v="1"/>
-    <n v="973"/>
-    <s v="Yes"/>
+    <x v="10"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="Surti Devia"/>
-    <s v="Surti"/>
+    <x v="11"/>
+    <x v="11"/>
     <x v="1"/>
-    <n v="618"/>
-    <s v="No"/>
+    <x v="11"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="French Derek Ian"/>
-    <s v="French"/>
+    <x v="12"/>
+    <x v="12"/>
     <x v="4"/>
-    <n v="700"/>
-    <s v="No"/>
+    <x v="12"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="French Peter Robert"/>
-    <s v="French"/>
+    <x v="13"/>
+    <x v="12"/>
     <x v="0"/>
-    <n v="682"/>
-    <s v="No"/>
+    <x v="13"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="Gray Jennifer"/>
-    <s v="Gray"/>
+    <x v="14"/>
+    <x v="13"/>
     <x v="3"/>
-    <n v="577"/>
-    <s v="No"/>
+    <x v="14"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="Mackey Ewan"/>
-    <s v="Mackey"/>
+    <x v="15"/>
+    <x v="14"/>
     <x v="1"/>
-    <n v="1695"/>
-    <s v="Yes"/>
+    <x v="15"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="Mosson Jane"/>
-    <s v="Mosson"/>
+    <x v="16"/>
+    <x v="15"/>
     <x v="1"/>
-    <n v="1504"/>
-    <s v="Yes"/>
+    <x v="16"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="Parmar Harry"/>
-    <s v="Parmar"/>
+    <x v="17"/>
+    <x v="16"/>
     <x v="1"/>
-    <n v="1251"/>
-    <s v="Yes"/>
+    <x v="17"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Allan David"/>
-    <s v="Allan"/>
+    <x v="18"/>
+    <x v="17"/>
     <x v="1"/>
-    <n v="1220"/>
-    <s v="Yes"/>
+    <x v="18"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Ashley-Higgins Charlotte Julia"/>
-    <s v="Ashley-Higgins"/>
+    <x v="19"/>
+    <x v="8"/>
     <x v="0"/>
-    <n v="780"/>
-    <s v="No"/>
+    <x v="19"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Pears David"/>
-    <s v="Pears"/>
+    <x v="20"/>
+    <x v="18"/>
     <x v="1"/>
-    <n v="1272"/>
-    <s v="Yes"/>
+    <x v="20"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Tomlinson Paul"/>
-    <s v="Tomlinson"/>
+    <x v="21"/>
+    <x v="19"/>
     <x v="0"/>
-    <n v="690"/>
-    <s v="No"/>
+    <x v="21"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Ward Keith"/>
-    <s v="Ward"/>
+    <x v="22"/>
+    <x v="3"/>
     <x v="1"/>
-    <n v="1144"/>
-    <s v="Yes"/>
+    <x v="22"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="Wilkinson Jenny"/>
-    <s v="Wilkinson"/>
+    <x v="23"/>
+    <x v="20"/>
     <x v="3"/>
-    <n v="735"/>
-    <s v="No"/>
+    <x v="23"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Burrows Alan Stephen"/>
-    <s v="Burrows"/>
+    <x v="24"/>
+    <x v="21"/>
     <x v="4"/>
-    <n v="1652"/>
-    <s v="No"/>
+    <x v="24"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Cairns Janet"/>
-    <s v="Cairns"/>
+    <x v="25"/>
+    <x v="22"/>
     <x v="1"/>
-    <n v="2304"/>
-    <s v="Yes"/>
+    <x v="25"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Farr Thomas"/>
-    <s v="Farr"/>
+    <x v="26"/>
+    <x v="23"/>
     <x v="1"/>
-    <n v="1709"/>
-    <s v="No"/>
+    <x v="26"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Fox-Redfern Matthew"/>
-    <s v="Fox-Redfern"/>
+    <x v="27"/>
+    <x v="24"/>
     <x v="1"/>
-    <n v="1602"/>
-    <s v="No"/>
+    <x v="27"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Jolley Alison"/>
-    <s v="Jolley"/>
+    <x v="28"/>
+    <x v="25"/>
     <x v="1"/>
-    <n v="1999"/>
-    <s v="Yes"/>
+    <x v="28"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Marriott Colin"/>
-    <s v="Marriott"/>
+    <x v="29"/>
+    <x v="26"/>
     <x v="2"/>
-    <n v="1493"/>
-    <s v="No"/>
+    <x v="29"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Parry Elizabeth Sarah"/>
-    <s v="Parry"/>
+    <x v="30"/>
+    <x v="27"/>
     <x v="4"/>
-    <n v="1710"/>
-    <s v="No"/>
+    <x v="30"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Passey Louise"/>
-    <s v="Passey"/>
+    <x v="31"/>
+    <x v="28"/>
     <x v="1"/>
-    <n v="2042"/>
-    <s v="Yes"/>
+    <x v="31"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Pocock Rob"/>
-    <s v="Pocock"/>
+    <x v="32"/>
+    <x v="29"/>
     <x v="0"/>
-    <n v="3697"/>
-    <s v="Yes"/>
+    <x v="32"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <s v="Puri Manish Kumar"/>
-    <s v="Puri"/>
+    <x v="33"/>
+    <x v="30"/>
     <x v="0"/>
-    <n v="2821"/>
-    <s v="Yes"/>
+    <x v="33"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Afreen Sadaf"/>
-    <s v="Afreen"/>
+    <x v="34"/>
+    <x v="31"/>
     <x v="4"/>
-    <n v="705"/>
-    <s v="No"/>
+    <x v="34"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Auton Ben"/>
-    <s v="Auton"/>
+    <x v="35"/>
+    <x v="32"/>
     <x v="2"/>
-    <n v="828"/>
-    <s v="No"/>
+    <x v="35"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Cooke David"/>
-    <s v="Cooke"/>
+    <x v="36"/>
+    <x v="33"/>
     <x v="3"/>
-    <n v="675"/>
-    <s v="No"/>
+    <x v="36"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Cooper John"/>
-    <s v="Cooper"/>
+    <x v="37"/>
+    <x v="34"/>
     <x v="1"/>
-    <n v="2102"/>
-    <s v="Yes"/>
+    <x v="37"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Ellis Joanne"/>
-    <s v="Ellis"/>
+    <x v="38"/>
+    <x v="35"/>
     <x v="1"/>
-    <n v="2295"/>
-    <s v="Yes"/>
+    <x v="38"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Finnegan Paul Edward"/>
-    <s v="Finnegan"/>
+    <x v="39"/>
+    <x v="36"/>
     <x v="0"/>
-    <n v="847"/>
-    <s v="No"/>
+    <x v="39"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Griffin Derrick"/>
-    <s v="Griffin"/>
+    <x v="40"/>
+    <x v="37"/>
     <x v="1"/>
-    <n v="2096"/>
-    <s v="Yes"/>
+    <x v="40"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="McDonough Dominic"/>
-    <s v="McDonough"/>
+    <x v="41"/>
+    <x v="38"/>
     <x v="1"/>
-    <n v="1907"/>
-    <s v="Yes"/>
+    <x v="41"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="O'Hagan David Michael"/>
-    <s v="O'Hagan"/>
+    <x v="42"/>
+    <x v="39"/>
     <x v="4"/>
-    <n v="1050"/>
-    <s v="No"/>
+    <x v="42"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <s v="Wood Terry"/>
-    <s v="Wood"/>
+    <x v="43"/>
+    <x v="40"/>
     <x v="1"/>
-    <n v="1906"/>
-    <s v="Yes"/>
+    <x v="43"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="Allen Leeford Claude Beresford"/>
-    <s v="Allen"/>
+    <x v="44"/>
+    <x v="41"/>
     <x v="1"/>
-    <n v="1519"/>
-    <s v="Yes"/>
+    <x v="44"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="Brindley Ian Stuart"/>
-    <s v="Brindley"/>
+    <x v="45"/>
+    <x v="42"/>
     <x v="0"/>
-    <n v="832"/>
-    <s v="No"/>
+    <x v="45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="Hodgins Samuel"/>
-    <s v="Hodgins"/>
+    <x v="46"/>
+    <x v="43"/>
     <x v="1"/>
-    <n v="1631"/>
-    <s v="Yes"/>
+    <x v="46"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
-    <s v="Whitehouse Karen Hilda"/>
-    <s v="Whitehouse"/>
+    <x v="47"/>
+    <x v="44"/>
     <x v="0"/>
-    <n v="807"/>
-    <s v="No"/>
+    <x v="47"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -1464,6 +1618,708 @@
       <x/>
     </i>
   </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of_x000a_            Votes" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCDBA4F9-AEAE-C945-AECB-28CDCCE0FA38}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:J51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="49">
+        <item x="34"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="4"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="39"/>
+        <item x="27"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="40"/>
+        <item x="46"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="41"/>
+        <item x="16"/>
+        <item x="42"/>
+        <item x="17"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="33"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="47"/>
+        <item x="23"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="49">
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of_x000a_            Votes" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC4B01A1-7401-6042-9908-FAE77F0AD635}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:J5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of_x000a_            Votes" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{234748F5-6433-2D47-A4EA-B959297806BF}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="49">
+        <item x="34"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="4"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="39"/>
+        <item x="27"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="40"/>
+        <item x="46"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="41"/>
+        <item x="16"/>
+        <item x="42"/>
+        <item x="17"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="33"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="47"/>
+        <item x="23"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="46">
+        <item x="31"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="8"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="42"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="37"/>
+        <item x="43"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="16"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="30"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="44"/>
+        <item x="20"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="49">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="36"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="35"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="10"/>
+        <item x="42"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="44"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="46"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="40"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Number of_x000a_            Votes" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
@@ -1775,11 +2631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="A3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1839,166 +2695,192 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>3408</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3433</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1591</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4450</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3636</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9656</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10306</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3150</v>
-      </c>
-      <c r="J5" s="2">
-        <v>39630</v>
+      <c r="B5" s="5">
+        <v>0.79274249825540821</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.73104770017035781</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.58449669360764145</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.69433608987361528</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.62249614791987673</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.45917542441390463</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.71514815071820137</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.6577573606180831</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.61732818244127363</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>436</v>
-      </c>
-      <c r="C6" s="2">
-        <v>651</v>
-      </c>
-      <c r="D6" s="2">
-        <v>627</v>
-      </c>
-      <c r="E6" s="2">
-        <v>682</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1470</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6518</v>
-      </c>
-      <c r="H6" s="2">
-        <v>847</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1639</v>
-      </c>
-      <c r="J6" s="2">
-        <v>12870</v>
+      <c r="B6" s="5">
+        <v>0.10141893463596185</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.13862862010221466</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.23034533431300513</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.10641285691995631</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.25166923472008218</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.3099529221551191</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.8774547220872941E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.3422426393819169</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.20047978067169295</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>504</v>
-      </c>
-      <c r="E7" s="2">
-        <v>700</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>3362</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1755</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>6321</v>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.18515797207935342</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.10922140739584958</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.15987445908031767</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.12178197210464228</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.8464078758801171E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>455</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1493</v>
-      </c>
-      <c r="H8" s="2">
-        <v>828</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>2776</v>
+      <c r="B8" s="5">
+        <v>0.10583856710862992</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7.0997194350658613E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5.7456109916036363E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4.3242569630506572E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>612</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>577</v>
-      </c>
-      <c r="F9" s="2">
-        <v>735</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>675</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>2599</v>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.13032367972742759</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9.0029645810578873E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.12583461736004109</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.6839220040247036E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4.0485388497725712E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="2">
-        <v>4299</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4696</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2722</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6409</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5841</v>
-      </c>
-      <c r="G10" s="2">
-        <v>21029</v>
-      </c>
-      <c r="H10" s="2">
-        <v>14411</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4789</v>
-      </c>
-      <c r="J10" s="2">
-        <v>64196</v>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2007,16 +2889,2064 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DFA36-9014-B841-B3F5-4F7EC8A49E09}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.42823912537799486</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2.8677799239828026E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.36450337287741336</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2.4409620537105117E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.10583856710862992</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7.08766901364571E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.10141893463596185</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6.7917004174714935E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.23034533431300513</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.7669636737491433E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8.1316277521517905E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.6637173655679483E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.13232947054333496</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.970590067917004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5.7456109916036363E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.2897999875381644E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.1335387776065742</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.2150289737678359E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.31718521612027561</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2.3661910399401832E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9.5059203956441102E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3.1139011776434668E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7.0997194350658613E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2.3256900741479219E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.1737314679473794</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.2960309053523585E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>7.2861008951495387E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.6356159262259331E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7.8558181558799747E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2.5733690572621346E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.21777092963533642</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1.9814318649137019E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.18515797207935342</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7.8509564458844796E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.35745775165319615</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1.5156707583026979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.10956298445004517</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>3.5890086609757614E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.11813045711350796</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.0748333229484703E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4.6839220040247036E-2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1.0514673811452427E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.2088683444615648</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1.9004299333291792E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.14586080077718411</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3.2743473113589633E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.2644718364799501</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2.6403514237647207E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.43568994889267459</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>3.1871144619602471E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.13032367972742759</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>9.5333042557168672E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.15925334813683992</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3.5749890958938255E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.23466999531908253</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2.3428250981369556E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>8.1268724142850343E-2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2.6621596361143997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.19519425807458263</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1.948719546389183E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5.8774547220872941E-2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1.3193968471555861E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>9.7103999239145936E-2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3.1808835441460528E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>7.6180512625422039E-2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2.4954825845847094E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.17580484093394835</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5.7589257897688331E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.10922140739584958</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.0904106174839555E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.13414808122117075</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>4.3943547884603404E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.10641285691995631</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1.0623714873200822E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.29535775127768316</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2.1605707520717801E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>9.0029645810578873E-2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>8.9880989469748891E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.22703894195444527</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>9.626768022929777E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.14544445215460411</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>3.265000934637672E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.19585687382297551</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.782042494859493E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.34057214449780748</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2.540656738737616E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.16851117143453748</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1.2570876690136457E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.12583461736004109</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1.1449311483581531E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.1322600791062383</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2.9690323384634558E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>4.8920963153146903E-2</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1.0981992647516979E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.13862862010221466</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1.0140818742600786E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3794D850-506E-C34B-AA4D-2F5A8BA880B6}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.88657648283038504</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.84059745347698334</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.71731289449954916</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.86710833982852686</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.71210340775558167</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.59700754297019909</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.924056307719896</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.6577573606180831</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.75485714285714289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.11342351716961499</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.15940254652301666</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.28268710550045084</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.13289166017147311</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.28789659224441833</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.40299245702980091</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7.5943692280104003E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.3422426393819169</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.24514285714285713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E890A35A-7CEA-8B46-B1AC-881A3E812BBB}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A3:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="48">
       <c r="A1" t="s">
         <v>0</v>
       </c>
